--- a/CP_Summaries.xlsx
+++ b/CP_Summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\CP-DSA\Coding Source Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823F3ED-025F-47F0-A860-5CE52386A295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D777C64-3995-4620-A725-BA3897ABF568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Question Name</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Find shortest common supersequence</t>
   </si>
   <si>
-    <t>find dp[i][j] same as longest comm subsequence, while finding add even when no match, add remainder at the end</t>
-  </si>
-  <si>
     <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Find%20Shortest%20Common%20Supersquence.txt</t>
   </si>
   <si>
@@ -340,6 +337,141 @@
   </si>
   <si>
     <t>dp[i][j] = (C consists of i characters of A and j characters of B), dp[i][j] = (A[i-1]==C[i+j-1])*(dp[i-1][j]) || (B[j-1]==C[i+j-1])*(dp[i][j-1])</t>
+  </si>
+  <si>
+    <t>Kth manhattan distance neighbourhood</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Kth%20Manhattan%20Distance%20Neighbourhood.txt</t>
+  </si>
+  <si>
+    <t>loop for k, then loop for i and j, use curr and next, curr[i][j] and next[i][j]</t>
+  </si>
+  <si>
+    <t>LIS in nlogn</t>
+  </si>
+  <si>
+    <t>LIS in n^2</t>
+  </si>
+  <si>
+    <t>Use lis ending at array</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20LIS%20in%20nlogn.txt</t>
+  </si>
+  <si>
+    <t>find dp[i][j] same as longest comm subsequence, while finding add even when no match, add remainder at the end, length = (m+n-lcs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladder problem n^2 </t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Ladder%20Problem%20(BottomUp).txt</t>
+  </si>
+  <si>
+    <t>keep loop for n, keep loop for i</t>
+  </si>
+  <si>
+    <t>Ladder problem n</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Ladder%20Problem%20(O(n)).txt</t>
+  </si>
+  <si>
+    <t>Longest arithmetic progession</t>
+  </si>
+  <si>
+    <t>j from n-2,  i from j-1, maintiain minInd, find A[k] = (2*A[j]-A[i]) then dp[i][j] = max(dp[i][j],dp[j][k]+1); dp[i][j] is last two elements are A[i], A[j]</t>
+  </si>
+  <si>
+    <t>maintain tail array, if a[i]&gt;tail.end() push, else replace lowest index in tail with value &gt; a[i], answer is max size of tail during process</t>
+  </si>
+  <si>
+    <t>LIS ending at an index</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Longest%20Arithmetic%20Progression.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Longest%20Increasing%20Subsequence%20ending%20at.txt</t>
+  </si>
+  <si>
+    <t>Use tail method, if new inserted then lis[i] = curr.size() else lis[i] = (index at which it was replaced + 1)</t>
+  </si>
+  <si>
+    <t>Longest palindromic substring</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Longest%20Palindromic%20Substring.txt</t>
+  </si>
+  <si>
+    <t>same as longest common substring but we need to check valid index for i and j so that bounds of substring of original coincide with reversed</t>
+  </si>
+  <si>
+    <t>Longest repeating subsequence</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Longest%20Repeating%20Subsequence.txt</t>
+  </si>
+  <si>
+    <t>same as lcs but check i!=j along with if A[i-1]==A[j-1] so that no index is common</t>
+  </si>
+  <si>
+    <t>Maximum product subarray</t>
+  </si>
+  <si>
+    <t>mx_prod = max(A[i],max(temp_mx*A[i],temp_mn*A[i])) , mn_prod = min(A[i],min(temp_mx*A[i],temp_mn*A[i]))</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Max%20Prod%20Subarray.txt</t>
+  </si>
+  <si>
+    <t>Maximum size sub square matrix of ones</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Maximum%20Size%20Square%20Sub-matrix.txt</t>
+  </si>
+  <si>
+    <t>dp[i][j] = maximum size square with bottom right corner as (i,j) , dp[i][j] = min(dp[i-1][j-1],min(dp[i][j-1],dp[i-1][j])) + 1</t>
+  </si>
+  <si>
+    <t>Min Points req to reach end</t>
+  </si>
+  <si>
+    <t>dp[i][j] = min initial points req to reach (m-1,n-1) if we start at (i,j)</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Min%20Points%20Req%20To%20Reach%20End.txt</t>
+  </si>
+  <si>
+    <t>Number of ways to get sum (Order no mat)</t>
+  </si>
+  <si>
+    <t>Keep 'i' outside, 's' inside, 1d num_ways[s]</t>
+  </si>
+  <si>
+    <t>Number of ways to get sum (Order mat)</t>
+  </si>
+  <si>
+    <t>Keep 's' outside, 'i' inside, 1d num_ways[s]</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Number%20of%20Ways%20to%20get%20a%20sum%20(Order%20Doesnt%20Matter).txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Number%20of%20Ways%20to%20get%20a%20sum%20(Order%20Matters).txt</t>
+  </si>
+  <si>
+    <t>Permutations of a BST</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Permutations%20of%20a%20BST.txt</t>
+  </si>
+  <si>
+    <t>Scrambled string</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Scrambled%20String.txt</t>
   </si>
 </sst>
 </file>
@@ -720,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,76 +1180,240 @@
         <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1157,8 +1453,23 @@
     <hyperlink ref="B34" r:id="rId33" xr:uid="{B48A312D-C79E-441D-83FE-3B240B8B44E5}"/>
     <hyperlink ref="B35" r:id="rId34" xr:uid="{C927E09E-B803-4514-868E-C65949BB88A6}"/>
     <hyperlink ref="B36" r:id="rId35" xr:uid="{E6EBDA09-33CB-4481-BD0C-6800DA138D51}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{EADE4FEB-4D13-4404-919B-DB4B2E4B99BA}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{64B5B24F-5D2F-4EF0-BD87-FEDF14C62483}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{AAAAF570-C039-4911-9F35-92D53CDB8267}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{8417CD1D-5AEB-4FBE-A2B3-B70F7001D4F3}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{C439DE42-4FBC-415E-9E59-5861C4DAAF6F}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{E5F173B1-33B5-4E2F-9441-E5CB5295D183}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{A0DF8693-A93D-4688-BF8E-2F803AB7CEF4}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{35BECC9E-D640-48DE-B7A2-2C6900225AA9}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{B0CF5AC0-AD88-4796-8E12-20C14D42C3C2}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{D5125D73-8E27-4E4E-9E54-7421FE8464CC}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{8AF6F263-6E2D-4F02-B947-18A910960FD7}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{861F60EE-8E60-4049-8519-997F69085BC3}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{707A368D-F526-4264-90C6-13E52273817D}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{CFD191AA-3CF3-47F4-B623-026DAA2374C3}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{54277259-2091-41B9-83FD-669117A4B478}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
--- a/CP_Summaries.xlsx
+++ b/CP_Summaries.xlsx
@@ -8,12 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\CP-DSA\Coding Source Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D777C64-3995-4620-A725-BA3897ABF568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4891744A-94BB-4269-8A3B-EEB45CACE55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="825" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId3"/>
+    <sheet name="Arrays" sheetId="3" r:id="rId4"/>
+    <sheet name="Sliding Window" sheetId="4" r:id="rId5"/>
+    <sheet name="Stack" sheetId="6" r:id="rId6"/>
+    <sheet name="Binary Search" sheetId="7" r:id="rId7"/>
+    <sheet name="DSU" sheetId="8" r:id="rId8"/>
+    <sheet name="Data Structures" sheetId="9" r:id="rId9"/>
+    <sheet name="Segment Tree" sheetId="10" r:id="rId10"/>
+    <sheet name="Heap" sheetId="11" r:id="rId11"/>
+    <sheet name="Linked List" sheetId="12" r:id="rId12"/>
+    <sheet name="Recursion and Backtracking" sheetId="13" r:id="rId13"/>
+    <sheet name="Subarrays and Hashing" sheetId="15" r:id="rId14"/>
+    <sheet name="Trees" sheetId="17" r:id="rId15"/>
+    <sheet name="Graphs" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="373">
   <si>
     <t>Question Name</t>
   </si>
@@ -472,6 +487,678 @@
   </si>
   <si>
     <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Scrambled%20String.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rod cutting at weak points </t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Rod%20Cutting%20at%20Weak%20Points.txt</t>
+  </si>
+  <si>
+    <t>dp[i][j] = min cost for weak points i to j, find dp[i][j] then find sequence by finding indexes for which the cost matches</t>
+  </si>
+  <si>
+    <t>Stock buy and sell atmost 2 times</t>
+  </si>
+  <si>
+    <t>maxProfitEndingAt , maxProfitStartingAt</t>
+  </si>
+  <si>
+    <t>Stock buy and sell atmost K times</t>
+  </si>
+  <si>
+    <t>maintain dp[ind][k] use mcm method, ans = max(ans , A[i] - minVal + find(A,k-1,i+1,dp));</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Stock%20Buy%20and%20Sell%20atmost%202%20times.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Stock%20Buy%20and%20Sell%20atmost%20K%20times.txt</t>
+  </si>
+  <si>
+    <t>Stock buy and sell with transaction fee</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Stock%20Buy%20and%20sell%20with%20transaction%20fee.txt</t>
+  </si>
+  <si>
+    <t>Stock buy and sell with cooldown period</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Stock%20buy%20and%20sell%20with%20cooldown%20period.txt</t>
+  </si>
+  <si>
+    <t>buy[i]=last transaction is buy, sell[i]=last transaction is sell[i], keep in mind cooldown period, cannot buy immediately after selling</t>
+  </si>
+  <si>
+    <t>buy[i]=last transaction is buy, sell[i]=last transaction is sell[i], keep in mind fee, cannot buy again before selling</t>
+  </si>
+  <si>
+    <t>Ugly number</t>
+  </si>
+  <si>
+    <t>array dp initially = {1}, three indexes i1 i2 i3 initially = 0, 2*dp[i1] 3*dp[i2] 5*dp[i3] insert min of these three and increase index which gives min</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Ugly%20Number.txt</t>
+  </si>
+  <si>
+    <t>Super ugly number</t>
+  </si>
+  <si>
+    <t>Same as ugly number, but maintain array to store the current index for each prime number</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Ugly%20Super%20Ugly%20Number.txt</t>
+  </si>
+  <si>
+    <t>Tiling with dominoes</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Tiling%20With%20Dominoes.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DP/(DP)%20Ways%20to%20Color%203xN%20board.txt</t>
+  </si>
+  <si>
+    <t>Ways to color 3xN board</t>
+  </si>
+  <si>
+    <t>Celebrity Problem</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Celibrity%20Problem.txt</t>
+  </si>
+  <si>
+    <t>maintain two pointers i=0, j=n-1 check final at end to confirm</t>
+  </si>
+  <si>
+    <t>Circular Tour</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Circular%20Tour.txt</t>
+  </si>
+  <si>
+    <t>currPos, ans, fuel when fuel over start at ans+1 and increment ans, if curr pos becomes ans return ans</t>
+  </si>
+  <si>
+    <t>Closest point pair</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Closest%20Point%20Pair.txt</t>
+  </si>
+  <si>
+    <t>Majority elemet in constant space</t>
+  </si>
+  <si>
+    <t>if(count&lt;0){curr=a[i]; count=1;}</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Majority%20Element%20(ConstantSpace).txt</t>
+  </si>
+  <si>
+    <t>Maximum circular subarray sum</t>
+  </si>
+  <si>
+    <t>kadane (for minSum and maxSum), if all neg return maxSum else return max(maxSum, sum-minSum)</t>
+  </si>
+  <si>
+    <t>Merge without extra space</t>
+  </si>
+  <si>
+    <t>Bring smallest p1.size() elements into p1, then sort p1 and p2</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Merge%20without%20extra%20space.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Maximum%20Circular%20Subarray%20Sum.txt</t>
+  </si>
+  <si>
+    <t>Monoblock</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Monoblock.txt</t>
+  </si>
+  <si>
+    <t>Number of permutations to sort cycle</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Number%20of%20Permutations%20to%20Sort%20Cycle.txt</t>
+  </si>
+  <si>
+    <t>See link</t>
+  </si>
+  <si>
+    <t>Rotate array left d times</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Rotate%20array%20to%20left%20d%20times.txt</t>
+  </si>
+  <si>
+    <t>d=d%n, rev(0, d-1), rev(d, n-1), rev(0, n-1)</t>
+  </si>
+  <si>
+    <t>Trapped Rain Water</t>
+  </si>
+  <si>
+    <t>h = min(lMaxUpto[i],rMaxUpto[i]); if(h&lt;=arr[i]){continue;} else{ans+=(long long)(h-arr[i]);}</t>
+  </si>
+  <si>
+    <t>Triplets that form triangle</t>
+  </si>
+  <si>
+    <t>Sort use one pointer from i=n-1 to i=0, for each i use two pointers init p1=0 and p2=i-1</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Trapping%20Rain%20Water.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Arrays/Triplets%20that%20form%20triangle.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum of subarray </t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Sliding%20Window/(Sliding%20Window)%20Maximum%20of%20Subarray%20(Efficient).txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> while(!q.empty() &amp;&amp; A[i]&gt;q.back()){q.pop_back();}</t>
+  </si>
+  <si>
+    <t>Substring with freq of each character &gt;= k</t>
+  </si>
+  <si>
+    <t>loop through no of unique characters in the substring (can be from 1 to 26) and then find longest substr with freq of that no.of letters all &gt;=k</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Sliding%20Window/(Sliding%20Window)%20Substring%20with%20freq%20of%20all%20greq%20k.txt</t>
+  </si>
+  <si>
+    <t>Infix to Postfix</t>
+  </si>
+  <si>
+    <t>Largest rectangle in histogram</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Stack/Largest%20Rectangle%20in%20Histogram.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Stack/Infix%20to%20Postfix.txt</t>
+  </si>
+  <si>
+    <t>find leftLimit and rightLimt, ans = max(ans,(rightLimit[i]-leftLimit[i]+1)*A[i])</t>
+  </si>
+  <si>
+    <t>Largest rectangle with all ones</t>
+  </si>
+  <si>
+    <t>Maintain colSum array, make colSum 0 if 0 encountered in column, use max rectangle in histogram on colsum</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Stack/Longest%20Valid%20Paranthesis%20Substring.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Stack/Largest%20Rectangle%20with%20all%201s.txt</t>
+  </si>
+  <si>
+    <t>Longest valid parantheses substring</t>
+  </si>
+  <si>
+    <t>keep currLen and count, go forward once where opening bracket='(', backward once where opening bracket =')', when count==0 upd ans</t>
+  </si>
+  <si>
+    <t>Maximum of minimum for every window sz</t>
+  </si>
+  <si>
+    <t>Find element in rotated array</t>
+  </si>
+  <si>
+    <t>Find index of minimum element, then find in two halves</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Binary%20Search/(Binary%20Search)%20Find%20Element%20in%20Rotated%20Array.txt</t>
+  </si>
+  <si>
+    <t>Find element in infinite array</t>
+  </si>
+  <si>
+    <t>init lb=0 and ub=1, while(target &gt; arr[ub]){lb=ub; ub*=2;} finally we get finite lb and ub for searching</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Binary%20Search/(Binary%20Search)%20Infinite%20Array.txt</t>
+  </si>
+  <si>
+    <t>Median of row-wise sorted matrix</t>
+  </si>
+  <si>
+    <t>BinSearch on median value, count leq in each row, if total leq &lt;= (nm/2) ans=mid+1 and go to second half else go to first half</t>
+  </si>
+  <si>
+    <t>Median of two sorted arrays</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Binary%20Search/(Binary%20Search)%20Median%20of%20Two%20Sorted%20Arrays.txt</t>
+  </si>
+  <si>
+    <t>kth smallest abs difference</t>
+  </si>
+  <si>
+    <t>BinSearch on difference, count pairs with difference &lt;= diff, if count&gt;=k go to first half, else  ans=mid+1 and go to second half</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Binary%20Search/(Binary%20Search)%20Median%20of%20Rowwise%20Sorted%20Matrix%20.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Binary%20Search/(Binary%20Search)%20kth%20smallest%20absoulute%20difference.txt</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DSU/Optimal%20DSU.txt</t>
+  </si>
+  <si>
+    <t>parent, rank, make smaller rank the child, update parent while finding rep</t>
+  </si>
+  <si>
+    <t>Closing the farm</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DSU/Closing%20the%20Farm.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add farms instead of removing, when merge reduce no.of sets, increase no.of sets for every new farm added as delta sets = (-no.of merges + 1) </t>
+  </si>
+  <si>
+    <t>Number of good paths</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/DSU/Number%20of%20Good%20Paths.txt</t>
+  </si>
+  <si>
+    <t>add nodes and neighbours in ascending order of value, add nodes with same value at the same time, for each cluster = nC2, n=no.of nodes with added value</t>
+  </si>
+  <si>
+    <t>AVL Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Map (Linear Probing) </t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Data%20Structure%20Implementations/Hash%20Linear%20Probing.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind = x%HASH_SIZE, k=1, while(hashMap[ind]!=-1 and k&lt;=HASH_SIZE), ind = (ind + k)%hashSize, k++, if found don’t insert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Map (Quadratic Probing) </t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Data%20Structure%20Implementations/Hash%20Quadratic%20Probing.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind = x%HASH_SIZE, k=1, while(hashMap[ind]!=-1 and k&lt;=HASH_SIZE), ind = (ind + k*k)%hashSize, k++, if found don’t insert </t>
+  </si>
+  <si>
+    <t>Heap sort</t>
+  </si>
+  <si>
+    <t>i=n/2-1 to i=0 heapify, swap top element with last, heapify root</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Data%20Structure%20Implementations/Heap%20Sort%20(Implemented).txt</t>
+  </si>
+  <si>
+    <t>Priority queue</t>
+  </si>
+  <si>
+    <t>parent = (i-1)/2</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Data%20Structure%20Implementations/Priority%20Queue%20Implementation.txt</t>
+  </si>
+  <si>
+    <t>Practice Questions</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Fenwick%20and%20Segment%20Trees/Practice%20Questions.txt</t>
+  </si>
+  <si>
+    <t>Median of stream</t>
+  </si>
+  <si>
+    <t>max_h stores first ceil(n/2) , min_h stores last floor(n/2), insert acc to size, if max_h.top greater then exchange top</t>
+  </si>
+  <si>
+    <t>Sort a k-sorted array</t>
+  </si>
+  <si>
+    <t>maintain min_heap of size k, push popped elements into ans, in the end push remaining elements into ans</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Heaps/(Heaps)%20Median%20of%20a%20Stream.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Heaps/(Heaps)%20Sort%20a%20k-sorted%20array.txt</t>
+  </si>
+  <si>
+    <t>First Repeating point</t>
+  </si>
+  <si>
+    <t>if state==-2 make state=-1, call dfs, check if in_cycle, end cycle if start node, if state==-1 start cycle</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Linked%20List/First%20repeating%20point.txt</t>
+  </si>
+  <si>
+    <t>Insertion Sort Linked List</t>
+  </si>
+  <si>
+    <t>maintain sortedHead (initially head of orig list), insert into sorted head</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Linked%20List/Insertion%20Sort%20Linked%20List.txt</t>
+  </si>
+  <si>
+    <t>Construct ST</t>
+  </si>
+  <si>
+    <t>st(4*n), node, l, r, a</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Fenwick%20and%20Segment%20Trees/(Segment%20Tree)%20Construction.txt</t>
+  </si>
+  <si>
+    <t>Combination Sum with repeat allowed</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Recursion%20and%20Backtracking/Combination%20Sum%20With%20Repeated%20Elements%20Allowed.txt</t>
+  </si>
+  <si>
+    <t>findSubsets(vector&lt;int&gt;&amp; candidates, vector&lt;int&gt;&amp;s,int left,int j), findSubsets(candidates,s,target,0)</t>
+  </si>
+  <si>
+    <t>Combination Sum with repeat not allowed</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Recursion%20and%20Backtracking/Combination%20Sum%20With%20Repeated%20Elements%20Not%20Allowed.txt</t>
+  </si>
+  <si>
+    <t>same as prev, extra condition: if(i&gt;j &amp;&amp; candidates[i]==candidates[i-1]){continue;} also call again for i+1 instead of i</t>
+  </si>
+  <si>
+    <t>kth Permutation sequence</t>
+  </si>
+  <si>
+    <t>N-Queens problem</t>
+  </si>
+  <si>
+    <t>Place the queens row wise  place_queens(vector&lt;vector&lt;int&gt;&gt; &amp;board,int row,int N) place_queens(board,row+1,N)</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Recursion%20and%20Backtracking/N-Queens%20(Backtracking).txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Recursion%20and%20Backtracking/Permutations%20of%20Array%20of%20Distinct%20Elements%20(Swap%20Method).txt</t>
+  </si>
+  <si>
+    <t>Permutaions of array of uniques (swap method)</t>
+  </si>
+  <si>
+    <t>solve(vector&lt;int&gt; &amp;A,vector&lt;vector&lt;int&gt;&gt; &amp;ans,int i) swap(A[i],A[j]); solve(A,ans,i+1); swap(A[i],A[j]); push in ans when i==(A.size())</t>
+  </si>
+  <si>
+    <t>use 'exists' array, always start for loop at 0 since permutation contains all elements</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Recursion%20and%20Backtracking/Permutations%20of%20Array%20of%20Distinct%20Elements.txt</t>
+  </si>
+  <si>
+    <t>Permutations of array of uniques</t>
+  </si>
+  <si>
+    <t>Permutaions of a array with duplicates</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Recursion%20and%20Backtracking/Permutations%20of%20Array%20with%20duplicates.txt</t>
+  </si>
+  <si>
+    <t>use 'freq' array instead of 'exists' array of the prev question, generalized version of prev</t>
+  </si>
+  <si>
+    <t>A and B and Interesting Substrings</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Recursion%20and%20Backtracking/Kth%20Permutation%20sequence.txt</t>
+  </si>
+  <si>
+    <t>Four Some</t>
+  </si>
+  <si>
+    <t>loop for i, loop for j, two pointers p1 and p2,   if(i&gt;0 &amp;&amp; A[i]==A[i-1]){continue;} if(j&gt;(i+1) &amp;&amp; A[j]==A[j-1]){continue;} do{p1++;}while(A[p1]==A[p1-1] &amp;&amp; p1&lt;p2); do{p2--;}while(A[p2]==A[p2+1]&amp;&amp;p1&lt;p2);</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Subarray%20(Hashing)/Four%20Sum.txt</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>if(!root or root==p or root==q){return root} ,  find leftans,  find rightans, if one doesn’t exist return other, else return root</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/Lowest%20Common%20Ancestor%20in%20Binary%20Tree.txt</t>
+  </si>
+  <si>
+    <t>Burn a tree</t>
+  </si>
+  <si>
+    <t>helper function returns {h,d} h is normal height of node, depth is depth of target node from current node, Current root acts as  a pivot vertex for the longest path from 'B' to some other leaf</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/Burn%20Tree%20from%20Leaf.txt</t>
+  </si>
+  <si>
+    <t>Check if pair with sum exists</t>
+  </si>
+  <si>
+    <t>maintain inOrder and revInorder, use flags to decide which to push, keep pushing left, go right when popped</t>
+  </si>
+  <si>
+    <t>Count nodes in complete binary tree</t>
+  </si>
+  <si>
+    <t>for given root, find left height (by going left-left only) and right height (by going right-right only), if lh==rh return (2^lh - 1) else return 1 + recursive calls for left and right</t>
+  </si>
+  <si>
+    <t>maintain dp for number of nodes, return list of roots for given 'n'</t>
+  </si>
+  <si>
+    <t>Path sum within tree</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/Path%20Sum%20within%20Tree.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/Find%20All%20Possible%20Full%20Binary%20Trees.txt</t>
+  </si>
+  <si>
+    <t>Find all possible full binary trees</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/Count%20Nodes%20in%20complete%20binary%20tree.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/Check%20if%20Pair%20exists%20with%20given%20sum%20(Iterative).txt</t>
+  </si>
+  <si>
+    <t>Maximum sum of non-adj nodes</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/Maximum%20sum%20of%20non-adjacent%20node.txt</t>
+  </si>
+  <si>
+    <t>use dp to store ans for a node, either left+right or root + leftleft + leftright + rightleft + rightright</t>
+  </si>
+  <si>
+    <t>Diameter end points</t>
+  </si>
+  <si>
+    <t>read explanation in code</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/Property%20of%20Diameter%20End%20Points.txt</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize</t>
+  </si>
+  <si>
+    <t>serialize: insert in array in inorder fashion, deserialize: maintain index as reference create node with A[index] and increment then call left and right</t>
+  </si>
+  <si>
+    <t>Swap nodes to fix BST</t>
+  </si>
+  <si>
+    <t>inorder traversal, call left, check if prev-&gt;val greater than root then: set first only once and set second=root, set prev = root, call right</t>
+  </si>
+  <si>
+    <t>Tree Distances 1 (max dist node from each)</t>
+  </si>
+  <si>
+    <t>Tree Distances 2 (sum of dist frm each)</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/(Up-down%20strategy)%20(Tree%20Distances%201)%20Maximum%20Distance%20Node%20from%20each%20node.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Trees/(Up-down%20strategy)%20(Tree%20distances%202)%20Sum%20of%20distances%20to%20from%20each%20node.txt</t>
+  </si>
+  <si>
+    <t>find maxHeightChildren (0-2 children),  ansDown=1+maxHeighChild, ansUp = (up + down_other_child =&gt; 1 + 1 + maxHeightParentChild) or (up + up =&gt; 1 + ansUp[par])</t>
+  </si>
+  <si>
+    <t>findSubtreeSize, findSubtreeChildrenSum, ansDown = sum(1+subtreechildsum), ansUp = (up + down_other_children) or (up + up)</t>
+  </si>
+  <si>
+    <t>BFS (Multisource)</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/BFS%20(Multisource).txt</t>
+  </si>
+  <si>
+    <t>add all start points at the beg, sz=q.size() , while sz--, push only if (dist[ux][uy]+1)&lt;dist[vx][vy]</t>
+  </si>
+  <si>
+    <t>Cycle detection - Undirected - BFS</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Cycle%20detection%20in%20undirected%20graph%20(BFS).txt</t>
+  </si>
+  <si>
+    <t>Cycle detection - Undirected - DFS</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Cycle%20detection%20in%20directed%20graph%20(DFS).txt</t>
+  </si>
+  <si>
+    <t>Cycle detection - Directed - BFS</t>
+  </si>
+  <si>
+    <t>Cycle detection - Directed - DFS</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Cycle%20Detection%20in%20directed%20graph%20(BFS).txt</t>
+  </si>
+  <si>
+    <t>init push all with indegree=0, iterate queue, reduce indeg of neigh, if indegree becomes zero push to queue, increase count while popping, cycle if count!=n</t>
+  </si>
+  <si>
+    <t>maintain visted and parent array, if visited[v] and v!=parent[u] return true</t>
+  </si>
+  <si>
+    <t>maintain visted array, if visited[v] and v!=parent return true</t>
+  </si>
+  <si>
+    <t>maintain visited and instack array, if visited[v] and instack[v] return true</t>
+  </si>
+  <si>
+    <t>Find Sink in graph</t>
+  </si>
+  <si>
+    <t>Sink is the node with outdegree=0, there should be only one sink in the graph</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Find%20Sink%20in%20a%20Graph.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all cycles in undirected graph </t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Finda%20all%20cycles%20in%20undirected%20graph.txt</t>
+  </si>
+  <si>
+    <t>Floyd warshall</t>
+  </si>
+  <si>
+    <t>parent[i][j] = last node before j in path i-&gt;j, loop for k, loop for i, loop for j, if((dist[i][k]+dist[k][j])&lt;dist[i][j] &amp;&amp; dist[i][k]!=INT_MAX &amp;&amp; dist[k][j]!=INT_MAX)</t>
+  </si>
+  <si>
+    <t>Min path with atmost k+1 edges</t>
+  </si>
+  <si>
+    <t>iter 0 to k, if(dist[u]!=1e8 &amp;&amp; (dist[u]+w)&lt;temp[v]) then relax temp[v], update dist = temp at end of each iteration</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Minimum%20Sum%20path%20from%20start%20to%20end%20with%20atmost%20k%2B1%20edges.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Floyd%20Warshall%20Algorithm.txt</t>
+  </si>
+  <si>
+    <t>Mother vertex</t>
+  </si>
+  <si>
+    <t>Find vertex that was popped out last from the stack, confirm once whether it is a mother vertex else no mother vertex exists</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Mother%20Vertex.txt</t>
+  </si>
+  <si>
+    <t>k-coloring</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/k-coloring.txt</t>
+  </si>
+  <si>
+    <t>use backtracking, if(allowed(graph,u,color,c)) color[u] = c;  if(dfs(graph,u+1,color,k)) return true; else color[u] = -1</t>
+  </si>
+  <si>
+    <t>Tarjans Algo - Strongly connected comp</t>
+  </si>
+  <si>
+    <t>!visited =&gt; dfs and minChild&lt;=&gt;minChild, else inStack =&gt; minChild&lt;=&gt; discTime, pop from stack if minChild == discTime</t>
+  </si>
+  <si>
+    <t>!visited =&gt; dfs and minChild&lt;=&gt;minChild and check if par!=-1 and minChild[v]&gt;=discTime[u] then isAp, else v!=parent =&gt; minChild&lt;=&gt;discTime, root is ap</t>
+  </si>
+  <si>
+    <t>Tarjans Algo - Articulation Points</t>
+  </si>
+  <si>
+    <t>Tarjans Algo - Bridge edges</t>
+  </si>
+  <si>
+    <t>!visited =&gt; dfs and minChild&lt;=&gt;minChild and check if minChild[v]&gt;discTime[u] then bridge edg, else v!=parent =&gt; minChild&lt;=&gt;discTime</t>
+  </si>
+  <si>
+    <t>Kosaraju Algo - Strongly connected comp</t>
+  </si>
+  <si>
+    <t>find topological order, iterate in topological order, dfs the reverse graph and find components normally, these components will be strongly connected</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp_source_codes/blob/main/Graphs/Find%20Strongly%20Connected%20Components%20(Kosaraju%20Algorithm).txt</t>
   </si>
 </sst>
 </file>
@@ -503,7 +1190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,8 +1203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -551,12 +1244,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -571,6 +1329,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -852,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,6 +2186,99 @@
       </c>
       <c r="B52" s="2" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1468,8 +2333,3511 @@
     <hyperlink ref="B50" r:id="rId48" xr:uid="{707A368D-F526-4264-90C6-13E52273817D}"/>
     <hyperlink ref="B51" r:id="rId49" xr:uid="{CFD191AA-3CF3-47F4-B623-026DAA2374C3}"/>
     <hyperlink ref="B52" r:id="rId50" xr:uid="{54277259-2091-41B9-83FD-669117A4B478}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{0701398E-0646-4B3E-8E36-F13EE8703E9D}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{AB407D71-64B9-43CB-BD8F-53AA67283867}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{2B9DDD8F-1F3A-4D75-81AD-0E0D35AE36CF}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{5C0292B8-4939-41D9-BFF5-DFFE0A5C1AD2}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{B7030298-F379-46B6-A075-6134238866E7}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{425DA26B-F4CA-4019-A35F-4F20DEF29EA0}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{20AF3BF6-1DE9-4B7F-852A-0A57E410E93A}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{29E19263-CBEB-45C9-9F51-7ADAE784676E}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{A393F188-2190-45C6-892E-AA14C6171121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C408E2-952B-4346-B4F1-2449B0601551}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A520BDC1-38C8-477E-887A-D9AE6944DF35}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61BDD14-1CE4-4C01-BED6-4F33275F1F14}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B131B571-CF03-4ADE-BCFF-4D4879A398F9}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072DFC60-C6D4-47EE-B219-CB77721EC8B1}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A286826-DA73-466F-88C0-B1C08F96357D}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="171" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFECE2C-B73F-40FE-81DC-9CE69ED4EA77}">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="160" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="9"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="13"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0C1B3D-DD82-42A2-BE58-6FD3225E7636}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07598BAB-6682-4BA8-99E7-7A390CECAEBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F7179B-73D3-47D7-B9B1-E17C43AF9AB7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4543E361-8E9A-4E57-A210-B1B62F594086}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1450164-F256-4779-8A9B-8B157401A19A}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72444F1-420A-4E6C-A55E-1CF8803ABC7C}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE570FD5-F46D-4036-B408-F7886AAD0772}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE51E23-ABA8-460A-92B7-98CBCD1BF06C}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9B641DE7-B1A0-4FE8-A7CF-78F18DD879CD}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{AA88A9EE-6DFE-4757-A767-5E0B054A8040}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83349A37-3BA3-47A0-98E6-5C82EEC6B1A8}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="12"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="12"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="12"/>
+      <c r="B61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CP_Summaries.xlsx
+++ b/CP_Summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\CP-DSA\Coding Source Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737BA03F-D983-4C39-BB8D-165DEE220078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF570D8E-79A5-4A3A-803D-B884A83CA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
     <sheet name="Trees" sheetId="17" r:id="rId13"/>
     <sheet name="Graphs" sheetId="21" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DP!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="377">
   <si>
     <t>Question Name</t>
   </si>
@@ -1166,6 +1169,9 @@
   </si>
   <si>
     <t>Use bitmask dp[num_of_children][mask_representing_subset], dp[person][mask] = min(dp[person][mask], max(sum[submask], dp[person - 1][mask ^ submask]))</t>
+  </si>
+  <si>
+    <t>Elevator rides</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1350,6 +1356,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1631,31 +1640,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="138.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="148.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1666,7 +1675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -1677,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1699,7 +1708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1721,7 +1730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1765,7 +1774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,7 +1785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1787,7 +1796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1798,7 +1807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1820,7 +1829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
@@ -1839,7 +1848,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1880,7 +1889,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1902,7 +1911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
@@ -1924,7 +1933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>76</v>
       </c>
@@ -1932,7 +1941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1965,7 +1974,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2031,7 +2040,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>115</v>
       </c>
@@ -2080,7 +2089,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -2091,7 +2100,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>133</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>139</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>141</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>145</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>147</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>149</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>152</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>154</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>158</v>
       </c>
@@ -2239,7 +2248,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>164</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>167</v>
       </c>
@@ -2272,7 +2281,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>170</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>173</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>373</v>
       </c>
@@ -2299,7 +2308,13 @@
         <v>375</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{492F3123-B9E6-4C2F-BCEE-6DCE055B1CA4}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9D9C90E9-125F-41CF-BD3B-CE9B007FC8A5}"/>
@@ -2375,14 +2390,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>267</v>
       </c>
@@ -2404,7 +2419,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>270</v>
       </c>
@@ -2415,193 +2430,193 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -2619,14 +2634,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>276</v>
       </c>
@@ -2648,7 +2663,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>279</v>
       </c>
@@ -2659,7 +2674,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>282</v>
       </c>
@@ -2667,7 +2682,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>283</v>
       </c>
@@ -2678,7 +2693,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>287</v>
       </c>
@@ -2689,7 +2704,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>291</v>
       </c>
@@ -2700,7 +2715,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>292</v>
       </c>
@@ -2711,169 +2726,169 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -2891,14 +2906,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="171" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2909,13 +2924,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>295</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>297</v>
       </c>
@@ -2926,193 +2941,193 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -3130,14 +3145,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="160" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>300</v>
       </c>
@@ -3159,7 +3174,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>303</v>
       </c>
@@ -3170,7 +3185,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>306</v>
       </c>
@@ -3181,7 +3196,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>308</v>
       </c>
@@ -3192,7 +3207,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>314</v>
       </c>
@@ -3203,7 +3218,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>317</v>
       </c>
@@ -3214,7 +3229,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>311</v>
       </c>
@@ -3223,7 +3238,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>320</v>
       </c>
@@ -3234,7 +3249,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>323</v>
       </c>
@@ -3243,7 +3258,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>325</v>
       </c>
@@ -3252,7 +3267,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>327</v>
       </c>
@@ -3263,7 +3278,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>328</v>
       </c>
@@ -3274,153 +3289,153 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
@@ -3438,14 +3453,14 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3456,7 +3471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>333</v>
       </c>
@@ -3467,7 +3482,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>336</v>
       </c>
@@ -3478,7 +3493,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>338</v>
       </c>
@@ -3489,7 +3504,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>340</v>
       </c>
@@ -3500,7 +3515,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>341</v>
       </c>
@@ -3511,7 +3526,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>347</v>
       </c>
@@ -3522,7 +3537,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>350</v>
       </c>
@@ -3530,7 +3545,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>352</v>
       </c>
@@ -3541,7 +3556,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>354</v>
       </c>
@@ -3552,7 +3567,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>358</v>
       </c>
@@ -3563,7 +3578,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>361</v>
       </c>
@@ -3574,7 +3589,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>364</v>
       </c>
@@ -3583,7 +3598,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>367</v>
       </c>
@@ -3592,7 +3607,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>368</v>
       </c>
@@ -3601,7 +3616,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>370</v>
       </c>
@@ -3612,147 +3627,147 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -3770,14 +3785,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -3799,7 +3814,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>177</v>
       </c>
@@ -3810,7 +3825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>180</v>
       </c>
@@ -3818,7 +3833,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -3829,7 +3844,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>185</v>
       </c>
@@ -3840,7 +3855,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>187</v>
       </c>
@@ -3851,7 +3866,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>191</v>
       </c>
@@ -3859,7 +3874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>193</v>
       </c>
@@ -3870,7 +3885,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>196</v>
       </c>
@@ -3881,7 +3896,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>199</v>
       </c>
@@ -3892,7 +3907,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>201</v>
       </c>
@@ -3903,159 +3918,159 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -4073,14 +4088,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4091,7 +4106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
@@ -4102,7 +4117,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>208</v>
       </c>
@@ -4113,193 +4128,193 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -4317,14 +4332,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4335,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>211</v>
       </c>
@@ -4343,7 +4358,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>212</v>
       </c>
@@ -4354,7 +4369,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>216</v>
       </c>
@@ -4365,7 +4380,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>220</v>
       </c>
@@ -4376,188 +4391,188 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -4575,14 +4590,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="120.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4593,7 +4608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>223</v>
       </c>
@@ -4604,7 +4619,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>226</v>
       </c>
@@ -4615,7 +4630,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>229</v>
       </c>
@@ -4626,7 +4641,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>231</v>
       </c>
@@ -4634,7 +4649,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>233</v>
       </c>
@@ -4645,182 +4660,182 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -4838,14 +4853,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +4871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>237</v>
       </c>
@@ -4867,7 +4882,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>240</v>
       </c>
@@ -4878,7 +4893,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>243</v>
       </c>
@@ -4889,189 +4904,189 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -5093,14 +5108,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5111,13 +5126,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>247</v>
       </c>
@@ -5128,7 +5143,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>250</v>
       </c>
@@ -5139,7 +5154,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>253</v>
       </c>
@@ -5150,7 +5165,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>256</v>
       </c>
@@ -5161,182 +5176,182 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -5354,14 +5369,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5372,7 +5387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
@@ -5383,7 +5398,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>259</v>
       </c>
@@ -5394,193 +5409,193 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>
@@ -5601,14 +5616,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="133.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="133.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5619,7 +5634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>261</v>
       </c>
@@ -5630,7 +5645,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>263</v>
       </c>
@@ -5641,193 +5656,193 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="2"/>
     </row>

--- a/CP_Summaries.xlsx
+++ b/CP_Summaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\CP-DSA\Coding Source Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF570D8E-79A5-4A3A-803D-B884A83CA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E523EA5-1017-4BEF-8A2A-EAC35D4850E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="379">
   <si>
     <t>Question Name</t>
   </si>
@@ -1172,6 +1172,12 @@
   </si>
   <si>
     <t>Elevator rides</t>
+  </si>
+  <si>
+    <t>dp[mask] = {number of elevator rides which it uses, amount of space already used in the last ride of the configuration}</t>
+  </si>
+  <si>
+    <t>https://github.com/MihirK1212/cp-source-codes/blob/main/CSES/DP/(DP%20Bitmask)%20Elevator%20Rides.txt</t>
   </si>
 </sst>
 </file>
@@ -1642,8 +1648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,6 +2317,12 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>376</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2376,9 +2388,10 @@
     <hyperlink ref="B60" r:id="rId58" xr:uid="{29E19263-CBEB-45C9-9F51-7ADAE784676E}"/>
     <hyperlink ref="B61" r:id="rId59" xr:uid="{A393F188-2190-45C6-892E-AA14C6171121}"/>
     <hyperlink ref="B62" r:id="rId60" xr:uid="{6CEB1E64-357C-4F46-8124-8689660AA159}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{AA2A0C6F-0654-4E7B-82F8-56EFCAB9656A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
 
